--- a/relatorio.xlsx
+++ b/relatorio.xlsx
@@ -1,44 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SisPag Pix\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637C95C4-9C1C-4F83-B780-1ED8DEBCEB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Valor dos títulos do dia: 16/02/2023</t>
-  </si>
-  <si>
-    <t>Total em andamento</t>
-  </si>
-  <si>
-    <t>Total cancelados</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+  <si>
+    <t>PixID</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Caixa</t>
+  </si>
+  <si>
+    <t>Situação</t>
+  </si>
+  <si>
+    <t>Liberado</t>
+  </si>
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>NumCert</t>
+  </si>
+  <si>
+    <t>NumProt</t>
+  </si>
+  <si>
+    <t>Relatório de Pagamentos pix do dia: 19/06/2023 - (Pagos)</t>
+  </si>
+  <si>
+    <t>Leonardo Falcão Koblitz</t>
+  </si>
+  <si>
+    <t>isa</t>
+  </si>
+  <si>
+    <t>pago</t>
+  </si>
+  <si>
+    <t>bra</t>
+  </si>
+  <si>
+    <t>edu</t>
+  </si>
+  <si>
+    <t>Total das taxas de serviço PIX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="\R\$\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="R$ #,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +87,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -63,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -86,36 +142,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:I8" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="9">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
+    <tableColumn id="9" name="Column9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -157,7 +241,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -189,27 +273,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,24 +307,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -434,47 +482,155 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="53.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" customWidth="1"/>
+    <col min="8" max="9" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="6" customHeight="1"/>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="3">
+        <v>111</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3">
+        <v>10253</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3">
+        <v>110</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3">
+        <v>107</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>334775.09000000003</v>
-      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
+    <row r="8" spans="1:9">
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/relatorio.xlsx
+++ b/relatorio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>PixID</t>
   </si>
@@ -43,10 +43,10 @@
     <t>NumProt</t>
   </si>
   <si>
-    <t>Relatório de Pagamentos pix do dia: 19/06/2023 - (Pagos)</t>
-  </si>
-  <si>
-    <t>Leonardo Falcão Koblitz</t>
+    <t>Relatório de Pagamentos pix do dia: 22/06/2023 - (Pagos)</t>
+  </si>
+  <si>
+    <t>Raimundo Domingues de Souza</t>
   </si>
   <si>
     <t>isa</t>
@@ -58,7 +58,19 @@
     <t>bra</t>
   </si>
   <si>
-    <t>edu</t>
+    <t>Keyce Felix dos Santos</t>
+  </si>
+  <si>
+    <t>adm</t>
+  </si>
+  <si>
+    <t>John Nigel Wynn</t>
+  </si>
+  <si>
+    <t>con</t>
+  </si>
+  <si>
+    <t>Eduardo Rossini Xavier da Silva</t>
   </si>
   <si>
     <t>Total das taxas de serviço PIX</t>
@@ -182,7 +194,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:I8" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:I10" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -483,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -544,13 +556,13 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="4">
-        <v>0.99</v>
+        <v>134.75</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>11</v>
@@ -565,19 +577,19 @@
         <v>23</v>
       </c>
       <c r="H4" s="3">
-        <v>10253</v>
+        <v>14052</v>
       </c>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4">
-        <v>1.01</v>
+        <v>140.58</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>11</v>
@@ -586,7 +598,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -594,33 +606,91 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4">
-        <v>1</v>
+        <v>140.09</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="G6" s="3">
+        <v>23</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1420</v>
+      </c>
+      <c r="I6" s="3">
+        <v>541500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3">
+        <v>28</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1004.23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3">
+        <v>544120</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="3">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4">
+        <v>205.4</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4">
-        <v>1.8</v>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3">
+        <v>23</v>
+      </c>
+      <c r="H8" s="3">
+        <v>14582</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4">
+        <v>6.25</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio.xlsx
+++ b/relatorio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>PixID</t>
   </si>
@@ -43,13 +43,13 @@
     <t>NumProt</t>
   </si>
   <si>
-    <t>Relatório de Pagamentos pix do dia: 22/06/2023 - (Pagos)</t>
-  </si>
-  <si>
-    <t>Raimundo Domingues de Souza</t>
-  </si>
-  <si>
-    <t>isa</t>
+    <t>Relatório de Pagamentos pix do dia: 05/07/2023 - (Todos)</t>
+  </si>
+  <si>
+    <t>Leonardo Falcão Koblitz</t>
+  </si>
+  <si>
+    <t>adm</t>
   </si>
   <si>
     <t>pago</t>
@@ -58,19 +58,10 @@
     <t>bra</t>
   </si>
   <si>
+    <t>Eduardo Rossini Xavier da Silva</t>
+  </si>
+  <si>
     <t>Keyce Felix dos Santos</t>
-  </si>
-  <si>
-    <t>adm</t>
-  </si>
-  <si>
-    <t>John Nigel Wynn</t>
-  </si>
-  <si>
-    <t>con</t>
-  </si>
-  <si>
-    <t>Eduardo Rossini Xavier da Silva</t>
   </si>
   <si>
     <t>Total das taxas de serviço PIX</t>
@@ -194,7 +185,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:I10" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:I9" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -495,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,13 +547,13 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="4">
-        <v>134.75</v>
+        <v>150</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>11</v>
@@ -573,23 +564,19 @@
       <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3">
-        <v>23</v>
-      </c>
-      <c r="H4" s="3">
-        <v>14052</v>
-      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="4">
-        <v>140.58</v>
+        <v>1934.23</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>11</v>
@@ -598,7 +585,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -606,91 +593,56 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4">
-        <v>140.09</v>
+        <v>934.23</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="3">
-        <v>23</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1420</v>
-      </c>
-      <c r="I6" s="3">
-        <v>541500</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4">
-        <v>1004.23</v>
+        <v>924.0700000000001</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3">
-        <v>544120</v>
-      </c>
+      <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="3">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4">
-        <v>205.4</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="3">
-        <v>23</v>
-      </c>
-      <c r="H8" s="3">
-        <v>14582</v>
-      </c>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="B10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="4">
-        <v>6.25</v>
+    <row r="9" spans="1:9">
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio.xlsx
+++ b/relatorio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="15">
   <si>
     <t>PixID</t>
   </si>
@@ -43,22 +43,16 @@
     <t>NumProt</t>
   </si>
   <si>
-    <t>Relatório de Pagamentos pix do dia: 05/07/2023 - (Todos)</t>
-  </si>
-  <si>
-    <t>Leonardo Falcão Koblitz</t>
+    <t>Relatório de Pagamentos pix do dia: 04/07/2023 - (Todos)</t>
+  </si>
+  <si>
+    <t>Eduardo Rossini Xavier da Silva</t>
   </si>
   <si>
     <t>adm</t>
   </si>
   <si>
     <t>pago</t>
-  </si>
-  <si>
-    <t>bra</t>
-  </si>
-  <si>
-    <t>Eduardo Rossini Xavier da Silva</t>
   </si>
   <si>
     <t>Keyce Felix dos Santos</t>
@@ -185,7 +179,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:I9" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:I18" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -486,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,13 +541,13 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="4">
-        <v>150</v>
+        <v>139.99</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>11</v>
@@ -562,7 +556,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -570,13 +564,13 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4">
-        <v>1934.23</v>
+        <v>134.75</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>11</v>
@@ -593,13 +587,13 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4">
-        <v>934.23</v>
+        <v>135.74</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>11</v>
@@ -616,13 +610,13 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4">
-        <v>924.0700000000001</v>
+        <v>145.26</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>11</v>
@@ -637,12 +631,219 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="3">
+        <v>49</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1442.23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="5" t="s">
-        <v>16</v>
+      <c r="A9" s="3">
+        <v>48</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="4">
-        <v>5</v>
+        <v>14587.9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="3">
+        <v>47</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4">
+        <v>14587.96</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="3">
+        <v>46</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1546.89</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="3">
+        <v>45</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1450.75</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="3">
+        <v>44</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4">
+        <v>874.5599999999999</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="3">
+        <v>43</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1543.89</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="3">
+        <v>42</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4">
+        <v>134.75</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="3">
+        <v>41</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4">
+        <v>134.7</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4">
+        <v>16.25</v>
       </c>
     </row>
   </sheetData>
